--- a/inst/extdata/ElectionDates.xlsx
+++ b/inst/extdata/ElectionDates.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u1040068/Dropbox/ausPH/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E47B7-4A82-B24F-AB39-93AD25F368BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640ABF8C-73C2-A24C-8F85-CBB27950D41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1580" windowWidth="27380" windowHeight="15480" xr2:uid="{088A5E92-32F5-ED4F-98FA-2095C774E8CA}"/>
+    <workbookView xWindow="7040" yWindow="2700" windowWidth="27380" windowHeight="13780" xr2:uid="{088A5E92-32F5-ED4F-98FA-2095C774E8CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -505,7 +505,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -615,7 +615,7 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -628,13 +628,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DD7A03-31D1-C447-923F-FB5A9B7539BF}">
   <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1628,7 +1628,9 @@
       <c r="E21" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="16">
+        <v>9001</v>
+      </c>
       <c r="G21" s="17" t="b">
         <v>1</v>
       </c>
@@ -1658,7 +1660,9 @@
       <c r="E22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="16">
+        <v>9002</v>
+      </c>
       <c r="G22" s="17" t="b">
         <v>1</v>
       </c>
@@ -2488,7 +2492,9 @@
       <c r="E48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="16"/>
+      <c r="F48" s="16">
+        <v>9003</v>
+      </c>
       <c r="G48" s="17" t="b">
         <v>1</v>
       </c>
@@ -3318,7 +3324,9 @@
       <c r="E74" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="16"/>
+      <c r="F74" s="16">
+        <v>9004</v>
+      </c>
       <c r="G74" s="17" t="b">
         <v>1</v>
       </c>
@@ -3348,7 +3356,9 @@
       <c r="E75" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F75" s="16"/>
+      <c r="F75" s="16">
+        <v>9005</v>
+      </c>
       <c r="G75" s="17" t="b">
         <v>1</v>
       </c>
@@ -3378,7 +3388,9 @@
       <c r="E76" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F76" s="16"/>
+      <c r="F76" s="16">
+        <v>9006</v>
+      </c>
       <c r="G76" s="17" t="b">
         <v>1</v>
       </c>
@@ -4816,7 +4828,9 @@
       <c r="E121" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F121" s="16"/>
+      <c r="F121" s="16">
+        <v>9007</v>
+      </c>
       <c r="G121" s="17" t="b">
         <v>1</v>
       </c>

--- a/inst/extdata/ElectionDates.xlsx
+++ b/inst/extdata/ElectionDates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u1040068/Dropbox/ausPH/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906F994-1F3F-F44E-872B-B5F0094E24A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606CB32F-2EDA-4E48-8C3E-E19A675A6CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="2500" windowWidth="27380" windowHeight="13980" xr2:uid="{088A5E92-32F5-ED4F-98FA-2095C774E8CA}"/>
+    <workbookView xWindow="5820" yWindow="5900" windowWidth="27380" windowHeight="13980" xr2:uid="{088A5E92-32F5-ED4F-98FA-2095C774E8CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DD7A03-31D1-C447-923F-FB5A9B7539BF}">
   <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
